--- a/shortlisted_candidates.xlsx
+++ b/shortlisted_candidates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,15 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>skill_match_ratio</t>
+          <t>matched_skills</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>matched_skills</t>
+          <t>required_skills</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>required_skills</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>shortlisted</t>
         </is>
@@ -493,25 +488,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rajesh.rajgor@example.com</t>
+          <t>rajeshrajgor@example.com</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data excective job</t>
+          <t>Social media job application</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>google analytics, r, seo</t>
+          <t>google analytics, r</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>resumes\Marketing_Resume.pdf</t>
+          <t>resumes\Rajesh_Rajgor_Resume.pdf</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -521,18 +516,15 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>54.69</v>
+        <v>58.26</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
       </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="b">
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
